--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2302,28 +2302,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>661.0227019206209</v>
+        <v>709.6345121747414</v>
       </c>
       <c r="AB2" t="n">
-        <v>904.4404230312338</v>
+        <v>970.9532464226314</v>
       </c>
       <c r="AC2" t="n">
-        <v>818.1218984472382</v>
+        <v>878.2868313254947</v>
       </c>
       <c r="AD2" t="n">
-        <v>661022.7019206209</v>
+        <v>709634.5121747414</v>
       </c>
       <c r="AE2" t="n">
-        <v>904440.4230312337</v>
+        <v>970953.2464226314</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.046758517900674e-06</v>
+        <v>3.787039129029508e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.425</v>
       </c>
       <c r="AH2" t="n">
-        <v>818121.8984472383</v>
+        <v>878286.8313254948</v>
       </c>
     </row>
     <row r="3">
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>224.2260155681688</v>
+        <v>260.6421357000629</v>
       </c>
       <c r="AB3" t="n">
-        <v>306.7959266538796</v>
+        <v>356.6220687843153</v>
       </c>
       <c r="AC3" t="n">
-        <v>277.5157540049115</v>
+        <v>322.5865590617566</v>
       </c>
       <c r="AD3" t="n">
-        <v>224226.0155681688</v>
+        <v>260642.1357000628</v>
       </c>
       <c r="AE3" t="n">
-        <v>306795.9266538796</v>
+        <v>356622.0687843153</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.807729442318282e-06</v>
+        <v>7.045296386799657e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.990625</v>
       </c>
       <c r="AH3" t="n">
-        <v>277515.7540049115</v>
+        <v>322586.5590617566</v>
       </c>
     </row>
     <row r="4">
@@ -2514,28 +2514,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>172.2074588024682</v>
+        <v>196.428067829232</v>
       </c>
       <c r="AB4" t="n">
-        <v>235.6218423903248</v>
+        <v>268.7615481985831</v>
       </c>
       <c r="AC4" t="n">
-        <v>213.1344244499931</v>
+        <v>243.111323247791</v>
       </c>
       <c r="AD4" t="n">
-        <v>172207.4588024681</v>
+        <v>196428.067829232</v>
       </c>
       <c r="AE4" t="n">
-        <v>235621.8423903248</v>
+        <v>268761.5481985831</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.464792903802576e-06</v>
+        <v>8.261035819240777e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.403125000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>213134.4244499931</v>
+        <v>243111.323247791</v>
       </c>
     </row>
     <row r="5">
@@ -2620,28 +2620,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>161.5274113680686</v>
+        <v>173.7231014902976</v>
       </c>
       <c r="AB5" t="n">
-        <v>221.0089303201474</v>
+        <v>237.6956115812484</v>
       </c>
       <c r="AC5" t="n">
-        <v>199.9161481984379</v>
+        <v>215.0102760198889</v>
       </c>
       <c r="AD5" t="n">
-        <v>161527.4113680686</v>
+        <v>173723.1014902976</v>
       </c>
       <c r="AE5" t="n">
-        <v>221008.9303201474</v>
+        <v>237695.6115812484</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.613740904285582e-06</v>
+        <v>8.536628616870079e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.29375</v>
       </c>
       <c r="AH5" t="n">
-        <v>199916.1481984379</v>
+        <v>215010.2760198889</v>
       </c>
     </row>
     <row r="6">
@@ -2726,28 +2726,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>161.2270678308572</v>
+        <v>173.4227579530862</v>
       </c>
       <c r="AB6" t="n">
-        <v>220.5979870423133</v>
+        <v>237.2846683034142</v>
       </c>
       <c r="AC6" t="n">
-        <v>199.5444247702776</v>
+        <v>214.6385525917286</v>
       </c>
       <c r="AD6" t="n">
-        <v>161227.0678308572</v>
+        <v>173422.7579530862</v>
       </c>
       <c r="AE6" t="n">
-        <v>220597.9870423133</v>
+        <v>237284.6683034142</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.628621115891133e-06</v>
+        <v>8.564160904194456e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.283333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>199544.4247702776</v>
+        <v>214638.5525917286</v>
       </c>
     </row>
   </sheetData>
@@ -3023,28 +3023,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>395.5961622877898</v>
+        <v>430.8872986859414</v>
       </c>
       <c r="AB2" t="n">
-        <v>541.2721217131013</v>
+        <v>589.5590114681074</v>
       </c>
       <c r="AC2" t="n">
-        <v>489.6138700969964</v>
+        <v>533.29232686486</v>
       </c>
       <c r="AD2" t="n">
-        <v>395596.1622877897</v>
+        <v>430887.2986859414</v>
       </c>
       <c r="AE2" t="n">
-        <v>541272.1217131014</v>
+        <v>589559.0114681075</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.711647893019421e-06</v>
+        <v>5.168819379218576e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>489613.8700969964</v>
+        <v>533292.32686486</v>
       </c>
     </row>
     <row r="3">
@@ -3129,28 +3129,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.2047880120043</v>
+        <v>196.7322122774385</v>
       </c>
       <c r="AB3" t="n">
-        <v>236.986432213871</v>
+        <v>269.1776920505251</v>
       </c>
       <c r="AC3" t="n">
-        <v>214.3687797359943</v>
+        <v>243.4877509145653</v>
       </c>
       <c r="AD3" t="n">
-        <v>173204.7880120043</v>
+        <v>196732.2122774385</v>
       </c>
       <c r="AE3" t="n">
-        <v>236986.432213871</v>
+        <v>269177.6920505251</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.365680668369647e-06</v>
+        <v>8.321661119881734e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.601041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>214368.7797359943</v>
+        <v>243487.7509145653</v>
       </c>
     </row>
     <row r="4">
@@ -3235,28 +3235,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>152.7419229632492</v>
+        <v>176.0987550280911</v>
       </c>
       <c r="AB4" t="n">
-        <v>208.9882374962858</v>
+        <v>240.946085558093</v>
       </c>
       <c r="AC4" t="n">
-        <v>189.0426934265334</v>
+        <v>217.9505293224534</v>
       </c>
       <c r="AD4" t="n">
-        <v>152741.9229632492</v>
+        <v>176098.7550280911</v>
       </c>
       <c r="AE4" t="n">
-        <v>208988.2374962858</v>
+        <v>240946.085558093</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.684413991502829e-06</v>
+        <v>8.92921602465186e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.35625</v>
       </c>
       <c r="AH4" t="n">
-        <v>189042.6934265334</v>
+        <v>217950.5293224534</v>
       </c>
     </row>
     <row r="5">
@@ -3341,28 +3341,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>152.7385305896096</v>
+        <v>176.0953626544516</v>
       </c>
       <c r="AB5" t="n">
-        <v>208.9835959010111</v>
+        <v>240.9414439628184</v>
       </c>
       <c r="AC5" t="n">
-        <v>189.0384948185972</v>
+        <v>217.9463307145173</v>
       </c>
       <c r="AD5" t="n">
-        <v>152738.5305896096</v>
+        <v>176095.3626544516</v>
       </c>
       <c r="AE5" t="n">
-        <v>208983.5959010111</v>
+        <v>240941.4439628184</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.697845462032589e-06</v>
+        <v>8.954818480392646e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.345833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>189038.4948185972</v>
+        <v>217946.3307145173</v>
       </c>
     </row>
   </sheetData>
@@ -3638,28 +3638,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.9285866366147</v>
+        <v>158.8554716189962</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.7199772159189</v>
+        <v>217.353064477806</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.7088074606363</v>
+        <v>196.6091930610484</v>
       </c>
       <c r="AD2" t="n">
-        <v>137928.5866366147</v>
+        <v>158855.4716189962</v>
       </c>
       <c r="AE2" t="n">
-        <v>188719.9772159189</v>
+        <v>217353.064477806</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.584679124100131e-06</v>
+        <v>9.764166710353819e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.826041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>170708.8074606363</v>
+        <v>196609.1930610485</v>
       </c>
     </row>
     <row r="3">
@@ -3744,28 +3744,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.856453505705</v>
+        <v>158.7833384880865</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.6212814839191</v>
+        <v>217.2543687458063</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.6195311107782</v>
+        <v>196.5199167111904</v>
       </c>
       <c r="AD3" t="n">
-        <v>137856.453505705</v>
+        <v>158783.3384880865</v>
       </c>
       <c r="AE3" t="n">
-        <v>188621.2814839191</v>
+        <v>217254.3687458063</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.605560674564352e-06</v>
+        <v>9.808638948079582e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.808333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>170619.5311107782</v>
+        <v>196519.9167111904</v>
       </c>
     </row>
   </sheetData>
@@ -4041,28 +4041,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>193.6968546266797</v>
+        <v>215.5551953730595</v>
       </c>
       <c r="AB2" t="n">
-        <v>265.0245818022304</v>
+        <v>294.9321279333477</v>
       </c>
       <c r="AC2" t="n">
-        <v>239.7310076794397</v>
+        <v>266.7842195833173</v>
       </c>
       <c r="AD2" t="n">
-        <v>193696.8546266797</v>
+        <v>215555.1953730595</v>
       </c>
       <c r="AE2" t="n">
-        <v>265024.5818022304</v>
+        <v>294932.1279333477</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.023214083423189e-06</v>
+        <v>8.168515541841741e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.170833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>239731.0076794397</v>
+        <v>266784.2195833173</v>
       </c>
     </row>
     <row r="3">
@@ -4147,28 +4147,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.8558673393905</v>
+        <v>162.7994594317908</v>
       </c>
       <c r="AB3" t="n">
-        <v>192.7252118159648</v>
+        <v>222.7494025997312</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.3317880918372</v>
+        <v>201.490512246427</v>
       </c>
       <c r="AD3" t="n">
-        <v>140855.8673393905</v>
+        <v>162799.4594317908</v>
       </c>
       <c r="AE3" t="n">
-        <v>192725.2118159648</v>
+        <v>222749.4025997312</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.716921681357768e-06</v>
+        <v>9.576981802329889e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.557291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>174331.7880918372</v>
+        <v>201490.512246427</v>
       </c>
     </row>
     <row r="4">
@@ -4253,28 +4253,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>141.0216052479053</v>
+        <v>162.9651973403056</v>
       </c>
       <c r="AB4" t="n">
-        <v>192.9519817342352</v>
+        <v>222.9761725180016</v>
       </c>
       <c r="AC4" t="n">
-        <v>174.5369154073815</v>
+        <v>201.6956395619712</v>
       </c>
       <c r="AD4" t="n">
-        <v>141021.6052479053</v>
+        <v>162965.1973403056</v>
       </c>
       <c r="AE4" t="n">
-        <v>192951.9817342352</v>
+        <v>222976.1725180015</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.728359962698538e-06</v>
+        <v>9.600205468027673e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.548958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>174536.9154073815</v>
+        <v>201695.6395619712</v>
       </c>
     </row>
   </sheetData>
@@ -4550,28 +4550,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.4468486554489</v>
+        <v>168.454573903415</v>
       </c>
       <c r="AB2" t="n">
-        <v>203.111527343051</v>
+        <v>230.4869797058462</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.726848242307</v>
+        <v>208.4896258532944</v>
       </c>
       <c r="AD2" t="n">
-        <v>148446.8486554488</v>
+        <v>168454.573903415</v>
       </c>
       <c r="AE2" t="n">
-        <v>203111.527343051</v>
+        <v>230486.9797058461</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.375751913370169e-06</v>
+        <v>9.743944821528787e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.163541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>183726.848242307</v>
+        <v>208489.6258532944</v>
       </c>
     </row>
     <row r="3">
@@ -4656,28 +4656,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.1336777585546</v>
+        <v>169.1414030065207</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.0512772226813</v>
+        <v>231.4267295854765</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.5769097123729</v>
+        <v>209.3396873233604</v>
       </c>
       <c r="AD3" t="n">
-        <v>149133.6777585546</v>
+        <v>169141.4030065207</v>
       </c>
       <c r="AE3" t="n">
-        <v>204051.2772226813</v>
+        <v>231426.7295854765</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.38397207964094e-06</v>
+        <v>9.762249526217699e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.15625</v>
       </c>
       <c r="AH3" t="n">
-        <v>184576.9097123729</v>
+        <v>209339.6873233604</v>
       </c>
     </row>
   </sheetData>
@@ -4953,28 +4953,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>453.8344207653432</v>
+        <v>489.3808604020982</v>
       </c>
       <c r="AB2" t="n">
-        <v>620.9562762527228</v>
+        <v>669.5924831619698</v>
       </c>
       <c r="AC2" t="n">
-        <v>561.6930807647694</v>
+        <v>605.6875163479431</v>
       </c>
       <c r="AD2" t="n">
-        <v>453834.4207653432</v>
+        <v>489380.8604020982</v>
       </c>
       <c r="AE2" t="n">
-        <v>620956.2762527227</v>
+        <v>669592.4831619698</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.538178296759255e-06</v>
+        <v>4.799095307999371e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.1375</v>
       </c>
       <c r="AH2" t="n">
-        <v>561693.0807647695</v>
+        <v>605687.5163479431</v>
       </c>
     </row>
     <row r="3">
@@ -5059,28 +5059,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.3143479415319</v>
+        <v>209.0688085967153</v>
       </c>
       <c r="AB3" t="n">
-        <v>253.5552663455219</v>
+        <v>286.0571673867694</v>
       </c>
       <c r="AC3" t="n">
-        <v>229.3563075926305</v>
+        <v>258.7562728152163</v>
       </c>
       <c r="AD3" t="n">
-        <v>185314.3479415319</v>
+        <v>209068.8085967153</v>
       </c>
       <c r="AE3" t="n">
-        <v>253555.2663455219</v>
+        <v>286057.1673867694</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.218930621252833e-06</v>
+        <v>7.977000739105193e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.692708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>229356.3075926305</v>
+        <v>258756.2728152163</v>
       </c>
     </row>
     <row r="4">
@@ -5165,28 +5165,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>155.0378186489244</v>
+        <v>178.6216871035155</v>
       </c>
       <c r="AB4" t="n">
-        <v>212.129583261194</v>
+        <v>244.3980725275947</v>
       </c>
       <c r="AC4" t="n">
-        <v>191.8842335605463</v>
+        <v>221.073063500481</v>
       </c>
       <c r="AD4" t="n">
-        <v>155037.8186489244</v>
+        <v>178621.6871035155</v>
       </c>
       <c r="AE4" t="n">
-        <v>212129.583261194</v>
+        <v>244398.0725275947</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.662225681743932e-06</v>
+        <v>8.815166933961723e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.341666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>191884.2335605463</v>
+        <v>221073.063500481</v>
       </c>
     </row>
     <row r="5">
@@ -5271,28 +5271,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>155.0317800001563</v>
+        <v>178.6156484547475</v>
       </c>
       <c r="AB5" t="n">
-        <v>212.1213209155433</v>
+        <v>244.3898101819439</v>
       </c>
       <c r="AC5" t="n">
-        <v>191.8767597615682</v>
+        <v>221.0655897015029</v>
       </c>
       <c r="AD5" t="n">
-        <v>155031.7800001563</v>
+        <v>178615.6484547475</v>
       </c>
       <c r="AE5" t="n">
-        <v>212121.3209155433</v>
+        <v>244389.8101819439</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.67583561781164e-06</v>
+        <v>8.840900106610825e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.332291666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>191876.7597615682</v>
+        <v>221065.5897015029</v>
       </c>
     </row>
   </sheetData>
@@ -5568,28 +5568,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.7700498207349</v>
+        <v>170.2839764443115</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.2902336697956</v>
+        <v>232.9900489698436</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.6021832985705</v>
+        <v>210.7538056998166</v>
       </c>
       <c r="AD2" t="n">
-        <v>150770.0498207349</v>
+        <v>170283.9764443116</v>
       </c>
       <c r="AE2" t="n">
-        <v>206290.2336697956</v>
+        <v>232990.0489698436</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.17307179273713e-06</v>
+        <v>9.567045629815097e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.467708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>186602.1832985705</v>
+        <v>210753.8056998166</v>
       </c>
     </row>
   </sheetData>
@@ -5865,28 +5865,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>274.0262783369374</v>
+        <v>308.1268094823367</v>
       </c>
       <c r="AB2" t="n">
-        <v>374.934843206787</v>
+        <v>421.5926943291806</v>
       </c>
       <c r="AC2" t="n">
-        <v>339.1515879954879</v>
+        <v>381.3564792914656</v>
       </c>
       <c r="AD2" t="n">
-        <v>274026.2783369374</v>
+        <v>308126.8094823367</v>
       </c>
       <c r="AE2" t="n">
-        <v>374934.843206787</v>
+        <v>421592.6943291806</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.299023388104575e-06</v>
+        <v>6.466040248398881e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.909375</v>
       </c>
       <c r="AH2" t="n">
-        <v>339151.5879954879</v>
+        <v>381356.4792914657</v>
       </c>
     </row>
     <row r="3">
@@ -5971,28 +5971,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.616637537009</v>
+        <v>169.2366266697305</v>
       </c>
       <c r="AB3" t="n">
-        <v>200.6073517475869</v>
+        <v>231.5570188024516</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.4616676510407</v>
+        <v>209.4575419203294</v>
       </c>
       <c r="AD3" t="n">
-        <v>146616.637537009</v>
+        <v>169236.6266697305</v>
       </c>
       <c r="AE3" t="n">
-        <v>200607.3517475869</v>
+        <v>231557.0188024516</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.712424085558059e-06</v>
+        <v>9.2362860823031e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>181461.6676510407</v>
+        <v>209457.5419203294</v>
       </c>
     </row>
     <row r="4">
@@ -6077,28 +6077,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>146.503898453353</v>
+        <v>169.1238875860745</v>
       </c>
       <c r="AB4" t="n">
-        <v>200.4530971596315</v>
+        <v>231.4027642144961</v>
       </c>
       <c r="AC4" t="n">
-        <v>181.322134904462</v>
+        <v>209.3180091737508</v>
       </c>
       <c r="AD4" t="n">
-        <v>146503.898453353</v>
+        <v>169123.8875860745</v>
       </c>
       <c r="AE4" t="n">
-        <v>200453.0971596315</v>
+        <v>231402.7642144961</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.726262662243798e-06</v>
+        <v>9.263409501358928e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.427083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>181322.1349044621</v>
+        <v>209318.0091737508</v>
       </c>
     </row>
   </sheetData>
@@ -6374,28 +6374,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>353.901313469505</v>
+        <v>388.6683530669266</v>
       </c>
       <c r="AB2" t="n">
-        <v>484.2233901130161</v>
+        <v>531.7931875037441</v>
       </c>
       <c r="AC2" t="n">
-        <v>438.0097893724255</v>
+        <v>481.0395920648124</v>
       </c>
       <c r="AD2" t="n">
-        <v>353901.313469505</v>
+        <v>388668.3530669265</v>
       </c>
       <c r="AE2" t="n">
-        <v>484223.3901130161</v>
+        <v>531793.1875037441</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.899198712231854e-06</v>
+        <v>5.574298297129004e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.473958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>438009.7893724255</v>
+        <v>481039.5920648124</v>
       </c>
     </row>
     <row r="3">
@@ -6480,28 +6480,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.5179085607051</v>
+        <v>184.809663092714</v>
       </c>
       <c r="AB3" t="n">
-        <v>220.9959281598784</v>
+        <v>252.8647342702453</v>
       </c>
       <c r="AC3" t="n">
-        <v>199.9043869460963</v>
+        <v>228.7316789294503</v>
       </c>
       <c r="AD3" t="n">
-        <v>161517.9085607051</v>
+        <v>184809.663092714</v>
       </c>
       <c r="AE3" t="n">
-        <v>220995.9281598784</v>
+        <v>252864.7342702454</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.517143553214632e-06</v>
+        <v>8.685125828159482e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.513541666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>199904.3869460963</v>
+        <v>228731.6789294503</v>
       </c>
     </row>
     <row r="4">
@@ -6586,28 +6586,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>150.0871097264782</v>
+        <v>173.2082720578948</v>
       </c>
       <c r="AB4" t="n">
-        <v>205.3558049036436</v>
+        <v>236.9911992391637</v>
       </c>
       <c r="AC4" t="n">
-        <v>185.7569351023807</v>
+        <v>214.3730918030836</v>
       </c>
       <c r="AD4" t="n">
-        <v>150087.1097264783</v>
+        <v>173208.2720578949</v>
       </c>
       <c r="AE4" t="n">
-        <v>205355.8049036436</v>
+        <v>236991.1992391637</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.712302436576115e-06</v>
+        <v>9.060358414529544e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.367708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>185756.9351023807</v>
+        <v>214373.0918030836</v>
       </c>
     </row>
   </sheetData>
@@ -6883,28 +6883,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>573.0101355054005</v>
+        <v>621.296216408307</v>
       </c>
       <c r="AB2" t="n">
-        <v>784.017746821536</v>
+        <v>850.0848929444379</v>
       </c>
       <c r="AC2" t="n">
-        <v>709.1921934407065</v>
+        <v>768.9539838634608</v>
       </c>
       <c r="AD2" t="n">
-        <v>573010.1355054005</v>
+        <v>621296.2164083071</v>
       </c>
       <c r="AE2" t="n">
-        <v>784017.746821536</v>
+        <v>850084.8929444379</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.203847834550874e-06</v>
+        <v>4.105601361790468e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.95</v>
       </c>
       <c r="AH2" t="n">
-        <v>709192.1934407066</v>
+        <v>768953.9838634608</v>
       </c>
     </row>
     <row r="3">
@@ -6989,28 +6989,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>210.6725962831063</v>
+        <v>234.8583071618451</v>
       </c>
       <c r="AB3" t="n">
-        <v>288.2515404534077</v>
+        <v>321.3434970759405</v>
       </c>
       <c r="AC3" t="n">
-        <v>260.7412179961972</v>
+        <v>290.6749247235389</v>
       </c>
       <c r="AD3" t="n">
-        <v>210672.5962831063</v>
+        <v>234858.3071618451</v>
       </c>
       <c r="AE3" t="n">
-        <v>288251.5404534077</v>
+        <v>321343.4970759405</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.939633504734268e-06</v>
+        <v>7.339238412205808e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.888541666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>260741.2179961972</v>
+        <v>290674.9247235389</v>
       </c>
     </row>
     <row r="4">
@@ -7095,28 +7095,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>163.4141349849865</v>
+        <v>187.4292536631331</v>
       </c>
       <c r="AB4" t="n">
-        <v>223.5904288091847</v>
+        <v>256.4489736568706</v>
       </c>
       <c r="AC4" t="n">
-        <v>202.2512720948382</v>
+        <v>231.9738435395287</v>
       </c>
       <c r="AD4" t="n">
-        <v>163414.1349849865</v>
+        <v>187429.2536631331</v>
       </c>
       <c r="AE4" t="n">
-        <v>223590.4288091848</v>
+        <v>256448.9736568707</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.571657124731577e-06</v>
+        <v>8.516650479529184e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.351041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>202251.2720948382</v>
+        <v>231973.8435395287</v>
       </c>
     </row>
     <row r="5">
@@ -7201,28 +7201,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>158.8901158279214</v>
+        <v>182.9052345060679</v>
       </c>
       <c r="AB5" t="n">
-        <v>217.4004662128521</v>
+        <v>250.259011060538</v>
       </c>
       <c r="AC5" t="n">
-        <v>196.6520708410305</v>
+        <v>226.3746422857211</v>
       </c>
       <c r="AD5" t="n">
-        <v>158890.1158279214</v>
+        <v>182905.2345060679</v>
       </c>
       <c r="AE5" t="n">
-        <v>217400.4662128521</v>
+        <v>250259.011060538</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.636359403186396e-06</v>
+        <v>8.637185916854053e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.304166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>196652.0708410305</v>
+        <v>226374.6422857211</v>
       </c>
     </row>
     <row r="6">
@@ -7307,28 +7307,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>159.4341563430995</v>
+        <v>183.4492750212461</v>
       </c>
       <c r="AB6" t="n">
-        <v>218.1448464470921</v>
+        <v>251.0033912947781</v>
       </c>
       <c r="AC6" t="n">
-        <v>197.3254084704591</v>
+        <v>227.0479799151497</v>
       </c>
       <c r="AD6" t="n">
-        <v>159434.1563430995</v>
+        <v>183449.2750212461</v>
       </c>
       <c r="AE6" t="n">
-        <v>218144.8464470921</v>
+        <v>251003.3912947781</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.636359403186396e-06</v>
+        <v>8.637185916854053e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.304166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>197325.408470459</v>
+        <v>227047.9799151497</v>
       </c>
     </row>
   </sheetData>
@@ -7604,28 +7604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>218.1243872631399</v>
+        <v>240.2801028953372</v>
       </c>
       <c r="AB2" t="n">
-        <v>298.4474096221005</v>
+        <v>328.7618371912469</v>
       </c>
       <c r="AC2" t="n">
-        <v>269.9640077214256</v>
+        <v>297.3852688699486</v>
       </c>
       <c r="AD2" t="n">
-        <v>218124.3872631399</v>
+        <v>240280.1028953372</v>
       </c>
       <c r="AE2" t="n">
-        <v>298447.4096221005</v>
+        <v>328761.8371912469</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.762868037181455e-06</v>
+        <v>7.542659027610158e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.404166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>269964.0077214256</v>
+        <v>297385.2688699486</v>
       </c>
     </row>
     <row r="3">
@@ -7710,28 +7710,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.596157293964</v>
+        <v>164.8371242721818</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.1063533079854</v>
+        <v>225.537425529781</v>
       </c>
       <c r="AC3" t="n">
-        <v>176.4856767818132</v>
+        <v>204.0124501810484</v>
       </c>
       <c r="AD3" t="n">
-        <v>142596.157293964</v>
+        <v>164837.1242721818</v>
       </c>
       <c r="AE3" t="n">
-        <v>195106.3533079854</v>
+        <v>225537.425529781</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.723431061258808e-06</v>
+        <v>9.46810506864978e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.508333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>176485.6767818132</v>
+        <v>204012.4501810484</v>
       </c>
     </row>
     <row r="4">
@@ -7816,28 +7816,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>142.7389863635558</v>
+        <v>164.8093611411814</v>
       </c>
       <c r="AB4" t="n">
-        <v>195.3017783421746</v>
+        <v>225.4994387891234</v>
       </c>
       <c r="AC4" t="n">
-        <v>176.6624507250202</v>
+        <v>203.9780888416043</v>
       </c>
       <c r="AD4" t="n">
-        <v>142738.9863635558</v>
+        <v>164809.3611411814</v>
       </c>
       <c r="AE4" t="n">
-        <v>195301.7783421746</v>
+        <v>225499.4387891234</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.735521619362464e-06</v>
+        <v>9.492340560388602e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.498958333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>176662.4507250202</v>
+        <v>203978.0888416044</v>
       </c>
     </row>
   </sheetData>
@@ -8113,28 +8113,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.9778428823642</v>
+        <v>164.268340896108</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.6285923688141</v>
+        <v>224.7591910216857</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.9580740796436</v>
+        <v>203.3084892821465</v>
       </c>
       <c r="AD2" t="n">
-        <v>142977.8428823642</v>
+        <v>164268.340896108</v>
       </c>
       <c r="AE2" t="n">
-        <v>195628.592368814</v>
+        <v>224759.1910216857</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.555841727659424e-06</v>
+        <v>9.531105807115054e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.788541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>176958.0740796436</v>
+        <v>203308.4892821465</v>
       </c>
     </row>
     <row r="3">
@@ -8219,28 +8219,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.0057729520056</v>
+        <v>159.2962709657494</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.8255869378566</v>
+        <v>217.9561855907282</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.8043379389366</v>
+        <v>197.1547531414394</v>
       </c>
       <c r="AD3" t="n">
-        <v>138005.7729520056</v>
+        <v>159296.2709657494</v>
       </c>
       <c r="AE3" t="n">
-        <v>188825.5869378566</v>
+        <v>217956.1855907282</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.670682347376722e-06</v>
+        <v>9.771359565456779e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.695833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>170804.3379389365</v>
+        <v>197154.7531414393</v>
       </c>
     </row>
   </sheetData>
@@ -14217,28 +14217,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.4722840861746</v>
+        <v>168.097757985713</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.0956439357593</v>
+        <v>229.9987684256391</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.1440596724777</v>
+        <v>208.0480087724613</v>
       </c>
       <c r="AD2" t="n">
-        <v>137472.2840861746</v>
+        <v>168097.757985713</v>
       </c>
       <c r="AE2" t="n">
-        <v>188095.6439357593</v>
+        <v>229998.7684256391</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.504527472401243e-06</v>
+        <v>9.792193036358017e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.964583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>170144.0596724777</v>
+        <v>208048.0087724613</v>
       </c>
     </row>
     <row r="3">
@@ -14323,28 +14323,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.9003062879237</v>
+        <v>158.4310766937114</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.681282795199</v>
+        <v>216.772388618049</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.673805981122</v>
+        <v>196.0839360903628</v>
       </c>
       <c r="AD3" t="n">
-        <v>137900.3062879237</v>
+        <v>158431.0766937115</v>
       </c>
       <c r="AE3" t="n">
-        <v>188681.282795199</v>
+        <v>216772.388618049</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.51447010639292e-06</v>
+        <v>9.813806888628398e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.955208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>170673.805981122</v>
+        <v>196083.9360903628</v>
       </c>
     </row>
   </sheetData>
@@ -14620,28 +14620,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.98414206927</v>
+        <v>186.0089862599019</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.4750699994959</v>
+        <v>254.5057011379951</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.6697299855845</v>
+        <v>230.2160342224539</v>
       </c>
       <c r="AD2" t="n">
-        <v>166984.14206927</v>
+        <v>186008.986259902</v>
       </c>
       <c r="AE2" t="n">
-        <v>228475.0699994959</v>
+        <v>254505.7011379951</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.826093307687375e-06</v>
+        <v>9.100466097289578e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.009375</v>
       </c>
       <c r="AH2" t="n">
-        <v>206669.7299855845</v>
+        <v>230216.0342224539</v>
       </c>
     </row>
   </sheetData>
@@ -14917,28 +14917,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>318.0141614600833</v>
+        <v>341.0607635709415</v>
       </c>
       <c r="AB2" t="n">
-        <v>435.1210055043175</v>
+        <v>466.6543832567206</v>
       </c>
       <c r="AC2" t="n">
-        <v>393.5936674351514</v>
+        <v>422.1175438722389</v>
       </c>
       <c r="AD2" t="n">
-        <v>318014.1614600833</v>
+        <v>341060.7635709415</v>
       </c>
       <c r="AE2" t="n">
-        <v>435121.0055043175</v>
+        <v>466654.3832567206</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.091858452683802e-06</v>
+        <v>5.999993095268665e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.183333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>393593.6674351514</v>
+        <v>422117.5438722388</v>
       </c>
     </row>
     <row r="3">
@@ -15023,28 +15023,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>151.6639796366219</v>
+        <v>174.5399000383365</v>
       </c>
       <c r="AB3" t="n">
-        <v>207.5133478812917</v>
+        <v>238.8131913892833</v>
       </c>
       <c r="AC3" t="n">
-        <v>187.7085652063734</v>
+        <v>216.0211955795785</v>
       </c>
       <c r="AD3" t="n">
-        <v>151663.9796366219</v>
+        <v>174539.9000383365</v>
       </c>
       <c r="AE3" t="n">
-        <v>207513.3478812917</v>
+        <v>238813.1913892833</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.651328215695165e-06</v>
+        <v>9.026266113112198e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.445833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>187708.5652063733</v>
+        <v>216021.1955795785</v>
       </c>
     </row>
     <row r="4">
@@ -15129,28 +15129,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>147.6359420881872</v>
+        <v>170.5118624899019</v>
       </c>
       <c r="AB4" t="n">
-        <v>202.0020092030513</v>
+        <v>233.301852711043</v>
       </c>
       <c r="AC4" t="n">
-        <v>182.7232209563701</v>
+        <v>211.0358513295752</v>
       </c>
       <c r="AD4" t="n">
-        <v>147635.9420881872</v>
+        <v>170511.8624899019</v>
       </c>
       <c r="AE4" t="n">
-        <v>202002.0092030513</v>
+        <v>233301.852711043</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.727955343665531e-06</v>
+        <v>9.174967046796074e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.389583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>182723.2209563701</v>
+        <v>211035.8513295752</v>
       </c>
     </row>
     <row r="5">
@@ -15235,28 +15235,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>147.7069178929719</v>
+        <v>170.5828382946866</v>
       </c>
       <c r="AB5" t="n">
-        <v>202.0991214303892</v>
+        <v>233.3989649383809</v>
       </c>
       <c r="AC5" t="n">
-        <v>182.8110649290287</v>
+        <v>211.1236953022339</v>
       </c>
       <c r="AD5" t="n">
-        <v>147706.9178929719</v>
+        <v>170582.8382946866</v>
       </c>
       <c r="AE5" t="n">
-        <v>202099.1214303892</v>
+        <v>233398.9649383809</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.740880401395472e-06</v>
+        <v>9.200049131995764e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.38125</v>
       </c>
       <c r="AH5" t="n">
-        <v>182811.0649290287</v>
+        <v>211123.6953022339</v>
       </c>
     </row>
   </sheetData>
@@ -15532,28 +15532,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>508.718136593921</v>
+        <v>544.763969560866</v>
       </c>
       <c r="AB2" t="n">
-        <v>696.0505975480385</v>
+        <v>745.3700964433303</v>
       </c>
       <c r="AC2" t="n">
-        <v>629.6205054312021</v>
+        <v>674.2330205722789</v>
       </c>
       <c r="AD2" t="n">
-        <v>508718.1365939211</v>
+        <v>544763.969560866</v>
       </c>
       <c r="AE2" t="n">
-        <v>696050.5975480385</v>
+        <v>745370.0964433303</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.36778387982609e-06</v>
+        <v>4.442891272635566e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.522916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>629620.5054312021</v>
+        <v>674233.0205722789</v>
       </c>
     </row>
     <row r="3">
@@ -15638,28 +15638,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>197.5689467233881</v>
+        <v>221.5426081316366</v>
       </c>
       <c r="AB3" t="n">
-        <v>270.3225490335913</v>
+        <v>303.1243702156372</v>
       </c>
       <c r="AC3" t="n">
-        <v>244.5233443539849</v>
+        <v>274.1946057600719</v>
       </c>
       <c r="AD3" t="n">
-        <v>197568.946723388</v>
+        <v>221542.6081316366</v>
       </c>
       <c r="AE3" t="n">
-        <v>270322.5490335912</v>
+        <v>303124.3702156371</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.079456314462722e-06</v>
+        <v>7.654660127999396e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.786458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>244523.3443539849</v>
+        <v>274194.6057600719</v>
       </c>
     </row>
     <row r="4">
@@ -15744,28 +15744,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>157.0688797291236</v>
+        <v>180.87194893678</v>
       </c>
       <c r="AB4" t="n">
-        <v>214.9085706352122</v>
+        <v>247.4769800424113</v>
       </c>
       <c r="AC4" t="n">
-        <v>194.3979982799223</v>
+        <v>223.8581244033584</v>
       </c>
       <c r="AD4" t="n">
-        <v>157068.8797291236</v>
+        <v>180871.94893678</v>
       </c>
       <c r="AE4" t="n">
-        <v>214908.5706352122</v>
+        <v>247476.9800424113</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.649124150037389e-06</v>
+        <v>8.723580427922111e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.321875</v>
       </c>
       <c r="AH4" t="n">
-        <v>194397.9982799224</v>
+        <v>223858.1244033584</v>
       </c>
     </row>
     <row r="5">
@@ -15850,28 +15850,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>156.9287820405086</v>
+        <v>180.731851248165</v>
       </c>
       <c r="AB5" t="n">
-        <v>214.7168827969754</v>
+        <v>247.2852922041745</v>
       </c>
       <c r="AC5" t="n">
-        <v>194.2246048599312</v>
+        <v>223.6847309833672</v>
       </c>
       <c r="AD5" t="n">
-        <v>156928.7820405086</v>
+        <v>180731.851248165</v>
       </c>
       <c r="AE5" t="n">
-        <v>214716.8827969754</v>
+        <v>247285.2922041744</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.661134325644247e-06</v>
+        <v>8.746116228102679e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.313541666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>194224.6048599312</v>
+        <v>223684.7309833672</v>
       </c>
     </row>
   </sheetData>
@@ -16147,28 +16147,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.5572615030228</v>
+        <v>218.9525890467021</v>
       </c>
       <c r="AB2" t="n">
-        <v>262.0970960982578</v>
+        <v>299.5805918400537</v>
       </c>
       <c r="AC2" t="n">
-        <v>237.0829171023013</v>
+        <v>270.9890406189289</v>
       </c>
       <c r="AD2" t="n">
-        <v>191557.2615030228</v>
+        <v>218952.5890467021</v>
       </c>
       <c r="AE2" t="n">
-        <v>262097.0960982578</v>
+        <v>299580.5918400537</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.220031117201835e-06</v>
+        <v>8.053053457468355e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.163541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>237082.9171023013</v>
+        <v>270989.0406189288</v>
       </c>
     </row>
   </sheetData>
@@ -16444,28 +16444,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.1840031516772</v>
+        <v>181.8118971003628</v>
       </c>
       <c r="AB2" t="n">
-        <v>219.170819931494</v>
+        <v>248.7630585874108</v>
       </c>
       <c r="AC2" t="n">
-        <v>198.2534644854728</v>
+        <v>225.0214614170461</v>
       </c>
       <c r="AD2" t="n">
-        <v>160184.0031516772</v>
+        <v>181811.8971003628</v>
       </c>
       <c r="AE2" t="n">
-        <v>219170.819931494</v>
+        <v>248763.0585874108</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.309480261597286e-06</v>
+        <v>8.874441415798346e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.946875</v>
       </c>
       <c r="AH2" t="n">
-        <v>198253.4644854728</v>
+        <v>225021.4614170461</v>
       </c>
     </row>
     <row r="3">
@@ -16550,28 +16550,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.4615575814967</v>
+        <v>161.0894515301822</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.8174556926103</v>
+        <v>220.4096943485272</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.6061055353425</v>
+        <v>199.3741024669159</v>
       </c>
       <c r="AD3" t="n">
-        <v>139461.5575814967</v>
+        <v>161089.4515301822</v>
       </c>
       <c r="AE3" t="n">
-        <v>190817.4556926103</v>
+        <v>220409.6943485271</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.695847457464629e-06</v>
+        <v>9.670080991007855e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.622916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>172606.1055353425</v>
+        <v>199374.1024669159</v>
       </c>
     </row>
     <row r="4">
@@ -16656,28 +16656,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>139.7356187797679</v>
+        <v>161.3635127284535</v>
       </c>
       <c r="AB4" t="n">
-        <v>191.1924383148116</v>
+        <v>220.7846769707285</v>
       </c>
       <c r="AC4" t="n">
-        <v>172.9453003423725</v>
+        <v>199.7132972739458</v>
       </c>
       <c r="AD4" t="n">
-        <v>139735.6187797679</v>
+        <v>161363.5127284535</v>
       </c>
       <c r="AE4" t="n">
-        <v>191192.4383148116</v>
+        <v>220784.6769707285</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.706788540356899e-06</v>
+        <v>9.692611782021818e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.614583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>172945.3003423725</v>
+        <v>199713.2972739458</v>
       </c>
     </row>
   </sheetData>
@@ -16953,28 +16953,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.7040039656988</v>
+        <v>278.4025850974509</v>
       </c>
       <c r="AB2" t="n">
-        <v>334.8148138044536</v>
+        <v>380.9226991855497</v>
       </c>
       <c r="AC2" t="n">
-        <v>302.8605578905988</v>
+        <v>344.5679714036463</v>
       </c>
       <c r="AD2" t="n">
-        <v>244704.0039656988</v>
+        <v>278402.5850974509</v>
       </c>
       <c r="AE2" t="n">
-        <v>334814.8138044536</v>
+        <v>380922.6991855497</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.523202402546935e-06</v>
+        <v>6.980112622521072e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.648958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>302860.5578905988</v>
+        <v>344567.9714036463</v>
       </c>
     </row>
     <row r="3">
@@ -17059,28 +17059,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.3080925469566</v>
+        <v>166.6601150039112</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.4486986463818</v>
+        <v>228.031721873607</v>
       </c>
       <c r="AC3" t="n">
-        <v>178.6044719686161</v>
+        <v>206.2686943825873</v>
       </c>
       <c r="AD3" t="n">
-        <v>144308.0925469566</v>
+        <v>166660.1150039113</v>
       </c>
       <c r="AE3" t="n">
-        <v>197448.6986463818</v>
+        <v>228031.721873607</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.725484020302141e-06</v>
+        <v>9.362053861506239e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.465625000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>178604.4719686161</v>
+        <v>206268.6943825873</v>
       </c>
     </row>
     <row r="4">
@@ -17165,28 +17165,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>144.3547812420381</v>
+        <v>166.7068036989927</v>
       </c>
       <c r="AB4" t="n">
-        <v>197.5125801787521</v>
+        <v>228.0956034059772</v>
       </c>
       <c r="AC4" t="n">
-        <v>178.6622567371953</v>
+        <v>206.3264791511665</v>
       </c>
       <c r="AD4" t="n">
-        <v>144354.7812420381</v>
+        <v>166706.8036989927</v>
       </c>
       <c r="AE4" t="n">
-        <v>197512.5801787521</v>
+        <v>228095.6034059773</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.738219055092016e-06</v>
+        <v>9.387284310094942e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.45625</v>
       </c>
       <c r="AH4" t="n">
-        <v>178662.2567371953</v>
+        <v>206326.4791511665</v>
       </c>
     </row>
   </sheetData>
